--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="109">
   <si>
     <t>八岐大蛇</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,37 +437,31 @@
   </si>
   <si>
     <t>队长 - 野队三人队伍，十层，3次，锁定，标记 无 - 无 - 无，失败后重新建立房间</t>
-  </si>
-  <si>
-    <t>失败后会等待邀请</t>
-  </si>
-  <si>
-    <t>新队员进入后离开房间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,7 +470,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,19 +478,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,11 +504,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -549,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -558,9 +540,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,16 +579,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="60% - 着色 5" xfId="2" builtinId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -772,7 +749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1060,20 +1037,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -1087,7 +1064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1072,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1081,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1090,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1099,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +1108,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -1140,7 +1117,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -1149,7 +1126,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1135,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1144,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1154,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1186,19 +1163,16 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1207,19 +1181,16 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1198,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -1235,7 +1206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1259,7 +1230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -1291,7 +1262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -1299,7 +1270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -1307,7 +1278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -1315,7 +1286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1294,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1331,7 +1302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -1339,7 +1310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -1347,7 +1318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -1355,7 +1326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -1363,7 +1334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -1371,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1379,7 +1350,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1387,7 +1358,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
@@ -1403,7 +1374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -1411,7 +1382,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1419,7 +1390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>69</v>
       </c>
@@ -1427,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -1435,7 +1406,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -1443,7 +1414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>73</v>
       </c>
@@ -1451,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -1459,7 +1430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -1467,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>77</v>
       </c>
@@ -1475,7 +1446,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>78</v>
       </c>
@@ -1483,7 +1454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>80</v>
       </c>
@@ -1491,7 +1462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
@@ -1499,7 +1470,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -1507,7 +1478,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
@@ -1515,7 +1486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>86</v>
       </c>
@@ -1523,7 +1494,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>89</v>
       </c>
@@ -1531,7 +1502,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -1539,7 +1510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>92</v>
       </c>
@@ -1547,7 +1518,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -1555,7 +1526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>95</v>
       </c>
@@ -1563,7 +1534,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>96</v>
       </c>
@@ -1571,7 +1542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -1579,7 +1550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>100</v>
       </c>
@@ -1587,7 +1558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -1608,16 +1579,16 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1610,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1671,7 +1642,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -1679,7 +1650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -1687,7 +1658,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1684,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +1708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1724,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -1761,7 +1732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1769,7 +1740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -1801,7 +1772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -1809,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -1817,7 +1788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +1804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -1841,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1849,7 +1820,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1857,7 +1828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -1865,7 +1836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -1873,7 +1844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -1881,7 +1852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -1889,7 +1860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -1897,7 +1868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1905,7 +1876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1913,7 +1884,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1892,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
@@ -1929,7 +1900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -1937,7 +1908,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1945,7 +1916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>69</v>
       </c>
@@ -1953,7 +1924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -1961,7 +1932,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -1969,7 +1940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>73</v>
       </c>
@@ -1977,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -1985,7 +1956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -1993,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>77</v>
       </c>
@@ -2001,7 +1972,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>78</v>
       </c>
@@ -2009,7 +1980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>80</v>
       </c>
@@ -2017,7 +1988,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
@@ -2025,7 +1996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2004,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
@@ -2041,7 +2012,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>86</v>
       </c>
@@ -2049,7 +2020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>89</v>
       </c>
@@ -2057,7 +2028,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -2065,7 +2036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>92</v>
       </c>
@@ -2073,7 +2044,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -2081,10 +2052,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -2104,16 +2075,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2106,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2143,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -2175,7 +2146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -2183,7 +2154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2199,7 +2170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2209,7 +2180,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2225,7 +2196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2233,7 +2204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2241,7 +2212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2249,7 +2220,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2257,7 +2228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -2265,7 +2236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -2281,7 +2252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -2289,7 +2260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2297,7 +2268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2305,7 +2276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2313,7 +2284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -2321,7 +2292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -2329,7 +2300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -2337,7 +2308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2345,7 +2316,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -2353,7 +2324,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -2361,7 +2332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -2369,7 +2340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -2377,7 +2348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -2393,7 +2364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -2401,7 +2372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2409,7 +2380,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
@@ -2417,7 +2388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
@@ -2425,7 +2396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -2433,7 +2404,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -2441,7 +2412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>69</v>
       </c>
@@ -2449,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -2457,7 +2428,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -2465,7 +2436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>73</v>
       </c>
@@ -2473,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -2481,7 +2452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -2489,7 +2460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>77</v>
       </c>
@@ -2497,7 +2468,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>78</v>
       </c>
@@ -2505,7 +2476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>80</v>
       </c>
@@ -2513,7 +2484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
@@ -2521,7 +2492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -2529,7 +2500,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
@@ -2537,7 +2508,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>86</v>
       </c>
@@ -2545,7 +2516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>89</v>
       </c>
@@ -2553,7 +2524,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -2561,7 +2532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>92</v>
       </c>
@@ -2569,7 +2540,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -2577,10 +2548,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -2600,16 +2571,16 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2602,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2639,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2655,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2634,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -2671,7 +2642,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -2679,7 +2650,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2687,7 +2658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2676,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2713,7 +2684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2721,7 +2692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2729,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2737,7 +2708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2745,7 +2716,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2753,7 +2724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -2761,7 +2732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2769,7 +2740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -2777,7 +2748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -2785,7 +2756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2793,7 +2764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2801,7 +2772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2809,7 +2780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -2817,7 +2788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -2825,7 +2796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -2833,7 +2804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2841,7 +2812,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -2849,7 +2820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -2857,7 +2828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -2865,7 +2836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -2873,7 +2844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -2881,7 +2852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -2889,7 +2860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -2897,7 +2868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2905,7 +2876,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
@@ -2913,7 +2884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
@@ -2921,7 +2892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -2929,7 +2900,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -2937,7 +2908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>69</v>
       </c>
@@ -2945,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -2953,7 +2924,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -2961,7 +2932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>73</v>
       </c>
@@ -2969,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -2977,7 +2948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -2985,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>77</v>
       </c>
@@ -2993,7 +2964,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>78</v>
       </c>
@@ -3001,7 +2972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>80</v>
       </c>
@@ -3009,7 +2980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
@@ -3017,7 +2988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -3025,7 +2996,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
@@ -3033,7 +3004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>86</v>
       </c>
@@ -3041,7 +3012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>89</v>
       </c>
@@ -3049,7 +3020,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -3057,7 +3028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>92</v>
       </c>
@@ -3065,7 +3036,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -3073,10 +3044,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -12,7 +12,7 @@
     <sheet name="1080 x 1920 - iOS" sheetId="4" r:id="rId3"/>
     <sheet name="1080 x 1920 - android" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -133,10 +133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单人模式，物品，随机小怪，普通，2-3次，第二十八章，战斗胜利次数，3次，队长左前，普攻开启，铃声提醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单人模式，金币，中间大怪，困难，3-4次，第二十八章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单人模式，章节第一栏、章节第四栏、第一章 - 第二十八章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>队长，不使用自动邀请、自动邀请寮友、自动邀请本区好友、自动邀请跨区好友</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,14 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>队长，Boss，标记 - 无，普通，3-4次，第二十八章，战斗胜利次数，3次，自动邀请本区好友，队长左前，普攻开启，自动更换，百分之50，N卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>队员 … 队长左前，普通关闭，自动更换，百分之50，N卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>队长左前，狗粮普攻，自动更换，N卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,14 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>队长，Boss，标记 - 无，普通，3-4次，第二十八章，战斗胜利次数，3次，自动邀请本区好友，队长正左，普攻开启，自动更换，百分之50，N卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>队员 … 队长正左，普通关闭，自动更换，百分之50，N卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>队长正左</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -437,6 +413,30 @@
   </si>
   <si>
     <t>队长 - 野队三人队伍，十层，3次，锁定，标记 无 - 无 - 无，失败后重新建立房间</t>
+  </si>
+  <si>
+    <t>单人模式，章节第一栏、章节第四栏、第十章 - 第二十章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长，Boss，标记 - 无，困难，3-4次，第二十八章，战斗胜利次数，3次，自动邀请本区好友，队长左前，普攻开启，自动更换，百分之50，N卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长，Boss，标记 - 无，困难，3-4次，第二十八章，战斗胜利次数，3次，自动邀请本区好友，队长正左，普攻开启，自动更换，百分之50，N卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队员 … 队长左前，普攻关闭，自动更换，百分之50，N卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队员 … 队长正左，普攻开启，自动更换，百分之50，N卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人模式，物品，随机小怪，普通，2-3次，第二十八章，战斗胜利次数，10次，队长左前，普攻开启，铃声提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1052,10 +1052,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" s="11"/>
     </row>
@@ -1200,95 +1200,106 @@
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1296,63 +1307,63 @@
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1360,23 +1371,23 @@
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1384,15 +1395,15 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
@@ -1400,7 +1411,7 @@
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1408,15 +1419,15 @@
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>2</v>
@@ -1424,15 +1435,15 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
@@ -1440,7 +1451,7 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1448,31 +1459,31 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1480,23 +1491,23 @@
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1504,15 +1515,15 @@
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1520,15 +1531,15 @@
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1536,26 +1547,26 @@
     </row>
     <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1576,7 +1587,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1639,23 +1650,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1726,7 +1737,7 @@
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>28</v>
@@ -1734,87 +1745,87 @@
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1822,63 +1833,63 @@
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1886,23 +1897,23 @@
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1910,15 +1921,15 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
@@ -1926,7 +1937,7 @@
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1934,15 +1945,15 @@
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>2</v>
@@ -1950,15 +1961,15 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
@@ -1966,7 +1977,7 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1974,31 +1985,31 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2006,23 +2017,23 @@
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2030,15 +2041,15 @@
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2046,10 +2057,10 @@
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2072,7 +2083,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,23 +2146,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2222,7 +2233,7 @@
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>28</v>
@@ -2230,87 +2241,87 @@
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2318,63 +2329,63 @@
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2382,23 +2393,23 @@
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2406,15 +2417,15 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
@@ -2422,7 +2433,7 @@
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2430,15 +2441,15 @@
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>2</v>
@@ -2446,15 +2457,15 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
@@ -2462,7 +2473,7 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2470,31 +2481,31 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2502,23 +2513,23 @@
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2526,15 +2537,15 @@
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2542,10 +2553,10 @@
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2568,7 +2579,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2631,23 +2642,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2718,7 +2729,7 @@
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>28</v>
@@ -2726,87 +2737,87 @@
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2814,63 +2825,63 @@
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2878,23 +2889,23 @@
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2902,15 +2913,15 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
@@ -2918,7 +2929,7 @@
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2926,15 +2937,15 @@
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>2</v>
@@ -2942,15 +2953,15 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
@@ -2958,7 +2969,7 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2966,31 +2977,31 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2998,23 +3009,23 @@
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3022,15 +3033,15 @@
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3038,10 +3049,10 @@
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="113">
   <si>
     <t>八岐大蛇</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,31 +437,43 @@
   <si>
     <t>单人模式，物品，随机小怪，普通，2-3次，第二十八章，战斗胜利次数，10次，队长左前，普攻开启，铃声提醒</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断线重连</t>
+  </si>
+  <si>
+    <t>自动断线重新连接</t>
+  </si>
+  <si>
+    <t>随机选择</t>
+  </si>
+  <si>
+    <t>战斗限时</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,7 +482,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -478,12 +490,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +523,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -531,7 +555,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -540,8 +564,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,12 +604,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="60% - 着色 5" xfId="2" builtinId="48"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -697,8 +726,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D61" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:D61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D62" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D62"/>
   <tableColumns count="4">
     <tableColumn id="1" name="脚本设置" dataDxfId="21"/>
     <tableColumn id="2" name="测试内容" dataDxfId="20"/>
@@ -710,8 +739,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D57" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:D57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D62" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D62"/>
   <tableColumns count="4">
     <tableColumn id="1" name="测试设置" dataDxfId="15"/>
     <tableColumn id="2" name="测试说明" dataDxfId="14"/>
@@ -723,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:D57" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:D62" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D62"/>
   <tableColumns count="4">
     <tableColumn id="1" name="测试设置" dataDxfId="9"/>
     <tableColumn id="2" name="测试说明" dataDxfId="8"/>
@@ -736,8 +765,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D57" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D62" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D62"/>
   <tableColumns count="4">
     <tableColumn id="1" name="测试设置" dataDxfId="3"/>
     <tableColumn id="2" name="测试说明" dataDxfId="2"/>
@@ -749,7 +778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1037,20 +1066,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1064,7 +1093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1101,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1110,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1119,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1128,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1137,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -1117,7 +1146,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -1126,7 +1155,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1164,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1173,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1183,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1163,7 +1192,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +1201,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1210,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1219,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1227,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -1207,7 +1236,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -1216,7 +1245,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1225,7 +1254,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1234,7 +1263,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1243,7 +1272,7 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1281,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1290,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -1270,7 +1299,7 @@
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -1279,7 +1308,7 @@
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -1288,7 +1317,7 @@
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -1297,7 +1326,7 @@
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1305,47 +1334,58 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="13"/>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="13"/>
+      <c r="D31" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -1353,7 +1393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1361,7 +1401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -1369,7 +1409,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1377,7 +1417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -1385,7 +1425,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -1393,7 +1433,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1401,7 +1441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -1417,7 +1457,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -1425,7 +1465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -1433,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -1441,7 +1481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -1449,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -1457,7 +1497,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -1465,7 +1505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -1473,7 +1513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -1481,7 +1521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -1489,7 +1529,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -1497,7 +1537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -1505,7 +1545,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -1513,7 +1553,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -1521,7 +1561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -1529,7 +1569,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -1537,7 +1577,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -1545,7 +1585,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>90</v>
       </c>
@@ -1553,7 +1593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -1561,7 +1601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -1569,7 +1609,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -1586,20 +1634,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,7 +1661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1669,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -1661,7 +1709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -1669,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1743,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1711,7 +1759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1783,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -1743,7 +1791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -1751,7 +1799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1767,7 +1815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1775,7 +1823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1783,7 +1831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1791,7 +1839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -1799,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -1807,7 +1855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -1815,7 +1863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -1823,7 +1871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +1879,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1839,7 +1887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -1847,7 +1895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -1855,7 +1903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -1863,7 +1911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -1871,7 +1919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -1879,7 +1927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1887,7 +1935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1943,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1903,7 +1951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -1911,7 +1959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -1919,7 +1967,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1927,7 +1975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -1935,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -1943,7 +1991,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -1951,7 +1999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -1959,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -1967,7 +2015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -1975,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -1983,7 +2031,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -1991,7 +2039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -1999,7 +2047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -2007,7 +2055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -2015,7 +2063,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -2023,7 +2071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2031,7 +2079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -2039,7 +2087,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -2047,7 +2095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -2055,7 +2103,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -2063,10 +2111,47 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -2082,20 +2167,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2202,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2141,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2149,7 +2234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -2157,7 +2242,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -2165,7 +2250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +2258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2276,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2215,7 +2300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +2308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2231,7 +2316,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -2239,7 +2324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -2247,7 +2332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -2255,7 +2340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2279,7 +2364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2287,7 +2372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -2295,7 +2380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -2303,7 +2388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -2311,7 +2396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -2319,7 +2404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2412,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +2420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -2343,7 +2428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -2351,7 +2436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2359,7 +2444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2367,7 +2452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -2383,7 +2468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -2391,7 +2476,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -2399,7 +2484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -2407,7 +2492,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -2415,7 +2500,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -2423,7 +2508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -2431,7 +2516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -2439,7 +2524,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2447,7 +2532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -2455,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -2463,7 +2548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -2471,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2479,7 +2564,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -2487,7 +2572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -2495,7 +2580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -2503,7 +2588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -2511,7 +2596,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -2519,7 +2604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2527,7 +2612,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -2535,7 +2620,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -2543,7 +2628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -2551,7 +2636,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -2559,10 +2644,47 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -2579,19 +2701,19 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2735,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2621,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +2751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +2759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2645,7 +2767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -2653,7 +2775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -2661,7 +2783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2677,7 +2799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2687,7 +2809,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2695,7 +2817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +2825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2711,7 +2833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2719,7 +2841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2849,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -2735,7 +2857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -2743,7 +2865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -2751,7 +2873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2759,7 +2881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2767,7 +2889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2775,7 +2897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2783,7 +2905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -2791,7 +2913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -2799,7 +2921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -2807,7 +2929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -2815,7 +2937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2823,7 +2945,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2831,7 +2953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -2839,7 +2961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -2847,7 +2969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2855,7 +2977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2863,7 +2985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -2871,7 +2993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -2879,7 +3001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -2887,7 +3009,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -2895,7 +3017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -2903,7 +3025,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -2911,7 +3033,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -2919,7 +3041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -2927,7 +3049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -2935,7 +3057,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2943,7 +3065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -2951,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -2959,7 +3081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -2967,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2975,7 +3097,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -2983,7 +3105,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -2991,7 +3113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -2999,7 +3121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -3007,7 +3129,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -3015,7 +3137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -3023,7 +3145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -3031,7 +3153,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -3039,7 +3161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -3047,7 +3169,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -3055,10 +3177,47 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="6"/>
     </row>
   </sheetData>

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="111">
   <si>
     <t>八岐大蛇</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -443,37 +443,31 @@
   </si>
   <si>
     <t>自动断线重新连接</t>
-  </si>
-  <si>
-    <t>随机选择</t>
-  </si>
-  <si>
-    <t>战斗限时</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,7 +476,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -490,19 +484,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,11 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -555,7 +537,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -564,9 +546,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,16 +585,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="60% - 着色 5" xfId="2" builtinId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -778,7 +755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1066,20 +1043,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1093,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1078,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1087,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1096,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1105,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1114,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -1146,7 +1123,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -1155,7 +1132,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1141,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1150,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1160,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1169,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1201,7 +1178,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1187,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1196,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1204,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -1236,7 +1213,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -1245,7 +1222,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1231,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1263,7 +1240,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1272,7 +1249,7 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1258,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1290,7 +1267,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -1299,7 +1276,7 @@
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -1308,7 +1285,7 @@
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -1317,7 +1294,7 @@
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -1326,7 +1303,7 @@
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1334,7 +1311,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1343,31 +1320,25 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -1376,7 +1347,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -1385,23 +1356,25 @@
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -1409,7 +1382,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1417,7 +1390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -1425,7 +1398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -1433,7 +1406,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1441,7 +1414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -1449,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -1457,7 +1430,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -1465,7 +1438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -1473,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -1481,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -1489,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -1497,7 +1470,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -1505,7 +1478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -1513,7 +1486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -1521,7 +1494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -1529,7 +1502,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -1537,7 +1510,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -1545,7 +1518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -1553,7 +1526,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -1561,7 +1534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -1569,7 +1542,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -1577,7 +1550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -1585,7 +1558,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>90</v>
       </c>
@@ -1593,7 +1566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -1601,7 +1574,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -1609,7 +1582,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -1617,7 +1590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -1638,16 +1611,16 @@
       <selection activeCell="A58" sqref="A58:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1661,7 +1634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1642,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -1709,7 +1682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -1717,7 +1690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1725,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1733,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1716,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1751,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1783,7 +1756,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -1791,7 +1764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -1799,7 +1772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1807,7 +1780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1815,7 +1788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1823,7 +1796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1839,7 +1812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -1847,7 +1820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -1855,7 +1828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -1863,7 +1836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -1871,7 +1844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1879,7 +1852,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1887,7 +1860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -1895,7 +1868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -1903,7 +1876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -1911,7 +1884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -1919,7 +1892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +1900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1935,7 +1908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -1943,7 +1916,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1951,7 +1924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +1932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -1967,7 +1940,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1975,7 +1948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -1983,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -1991,7 +1964,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -1999,7 +1972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -2007,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -2015,7 +1988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -2023,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2031,7 +2004,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -2039,7 +2012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -2047,7 +2020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -2055,7 +2028,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -2063,7 +2036,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -2071,7 +2044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2079,7 +2052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -2087,7 +2060,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -2095,7 +2068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -2103,7 +2076,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -2119,7 +2092,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>90</v>
       </c>
@@ -2127,7 +2100,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -2135,7 +2108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -2143,7 +2116,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -2151,7 +2124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -2171,16 +2144,16 @@
       <selection activeCell="A58" sqref="A58:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2175,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +2207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -2242,7 +2215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -2250,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2266,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +2249,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2292,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2300,7 +2273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2308,7 +2281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2289,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -2324,7 +2297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -2332,7 +2305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -2340,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2348,7 +2321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2372,7 +2345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -2380,7 +2353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -2388,7 +2361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -2396,7 +2369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -2404,7 +2377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2412,7 +2385,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2420,7 +2393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -2428,7 +2401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -2436,7 +2409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2444,7 +2417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2452,7 +2425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +2433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -2468,7 +2441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -2476,7 +2449,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -2484,7 +2457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -2492,7 +2465,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -2500,7 +2473,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -2508,7 +2481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -2516,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -2524,7 +2497,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2532,7 +2505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -2540,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -2556,7 +2529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2564,7 +2537,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -2572,7 +2545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -2580,7 +2553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -2588,7 +2561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -2596,7 +2569,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -2604,7 +2577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2612,7 +2585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -2620,7 +2593,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -2628,7 +2601,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -2636,7 +2609,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -2644,7 +2617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -2652,7 +2625,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>90</v>
       </c>
@@ -2660,7 +2633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -2668,7 +2641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -2676,7 +2649,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -2684,7 +2657,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>
@@ -2704,16 +2677,16 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="99" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="36" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2727,7 +2700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2708,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2751,7 +2724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -2775,7 +2748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>101</v>
       </c>
@@ -2783,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2799,7 +2772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2809,7 +2782,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2817,7 +2790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2825,7 +2798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2841,7 +2814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2849,7 +2822,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -2857,7 +2830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -2865,7 +2838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -2873,7 +2846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2881,7 +2854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2889,7 +2862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2905,7 +2878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -2913,7 +2886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -2921,7 +2894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
@@ -2929,7 +2902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -2937,7 +2910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2945,7 +2918,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2953,7 +2926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -2961,7 +2934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -2969,7 +2942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2977,7 +2950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +2958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -2993,7 +2966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -3001,7 +2974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -3009,7 +2982,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -3017,7 +2990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -3025,7 +2998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -3033,7 +3006,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -3041,7 +3014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -3049,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3057,7 +3030,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -3065,7 +3038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -3073,7 +3046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -3081,7 +3054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -3089,7 +3062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -3097,7 +3070,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -3105,7 +3078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
@@ -3113,7 +3086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -3121,7 +3094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>78</v>
       </c>
@@ -3129,7 +3102,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -3137,7 +3110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -3145,7 +3118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -3153,7 +3126,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -3161,7 +3134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -3169,7 +3142,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -3177,7 +3150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -3185,7 +3158,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>90</v>
       </c>
@@ -3193,7 +3166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -3201,7 +3174,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -3209,7 +3182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -3217,7 +3190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
   </sheetData>

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1389,6 +1389,7 @@
       <c r="B37" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
@@ -1397,6 +1398,7 @@
       <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -1413,6 +1415,7 @@
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
@@ -1421,6 +1424,7 @@
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -1477,6 +1481,7 @@
       <c r="B48" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
@@ -1485,6 +1490,7 @@
       <c r="B49" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
@@ -1493,6 +1499,7 @@
       <c r="B50" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
@@ -1509,6 +1516,7 @@
       <c r="B52" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
@@ -1517,6 +1525,7 @@
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
@@ -1533,6 +1542,7 @@
       <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
@@ -1549,6 +1559,7 @@
       <c r="B57" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
@@ -1565,6 +1576,7 @@
       <c r="B59" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
@@ -1573,6 +1585,7 @@
       <c r="B60" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
@@ -1581,6 +1594,7 @@
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -1589,6 +1603,7 @@
       <c r="B62" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="640 x 1136 - iOS" sheetId="3" r:id="rId1"/>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1664,6 +1664,7 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -1672,6 +1673,7 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -1680,6 +1682,7 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -1688,6 +1691,7 @@
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -1696,6 +1700,7 @@
       <c r="B7" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -1704,6 +1709,7 @@
       <c r="B8" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -1712,6 +1718,7 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -1720,6 +1727,7 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -1728,7 +1736,7 @@
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1738,6 +1746,7 @@
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -1746,6 +1755,7 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -1754,6 +1764,7 @@
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
@@ -1762,6 +1773,7 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1778,6 +1790,7 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
@@ -1786,6 +1799,7 @@
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -1794,6 +1808,7 @@
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -1802,6 +1817,7 @@
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -1810,6 +1826,7 @@
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
@@ -1818,6 +1835,7 @@
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
@@ -1826,6 +1844,7 @@
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
@@ -1834,6 +1853,7 @@
       <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
@@ -1842,6 +1862,7 @@
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -1850,6 +1871,7 @@
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
@@ -1858,6 +1880,7 @@
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
@@ -1874,6 +1897,7 @@
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
@@ -1882,6 +1906,7 @@
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
@@ -1890,6 +1915,7 @@
       <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
@@ -1898,6 +1924,7 @@
       <c r="B32" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
@@ -1906,6 +1933,7 @@
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
@@ -1914,6 +1942,7 @@
       <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
@@ -1922,6 +1951,7 @@
       <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -1938,6 +1968,7 @@
       <c r="B37" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
@@ -1946,6 +1977,7 @@
       <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -1962,6 +1994,7 @@
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
@@ -1970,6 +2003,7 @@
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -2026,6 +2060,7 @@
       <c r="B48" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
@@ -2034,6 +2069,7 @@
       <c r="B49" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
@@ -2042,6 +2078,7 @@
       <c r="B50" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
@@ -2058,6 +2095,7 @@
       <c r="B52" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
@@ -2066,6 +2104,7 @@
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
@@ -2082,6 +2121,7 @@
       <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
@@ -2098,8 +2138,9 @@
       <c r="B57" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -2107,21 +2148,23 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
@@ -2130,14 +2173,16 @@
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
@@ -2155,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D62"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2632,7 +2677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -2640,7 +2685,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>90</v>
       </c>
@@ -2648,7 +2693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -2664,7 +2709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -2688,7 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -3165,7 +3210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -3173,7 +3218,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>90</v>
       </c>
@@ -3181,7 +3226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +3242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="640 x 1136 - iOS" sheetId="3" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2242,6 +2242,7 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -2250,6 +2251,7 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -2258,6 +2260,7 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -2266,6 +2269,7 @@
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -2274,6 +2278,7 @@
       <c r="B7" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -2282,6 +2287,7 @@
       <c r="B8" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -2290,6 +2296,7 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -2298,6 +2305,7 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -2306,7 +2314,7 @@
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2316,6 +2324,7 @@
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -2324,6 +2333,7 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -2332,6 +2342,7 @@
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
@@ -2340,6 +2351,7 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -2356,6 +2368,7 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
@@ -2364,6 +2377,7 @@
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -2372,6 +2386,7 @@
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -2380,6 +2395,7 @@
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -2388,6 +2404,7 @@
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
@@ -2396,6 +2413,7 @@
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
@@ -2404,6 +2422,7 @@
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
@@ -2412,6 +2431,7 @@
       <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
@@ -2420,6 +2440,7 @@
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -2428,6 +2449,7 @@
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
@@ -2436,6 +2458,7 @@
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
@@ -2452,6 +2475,7 @@
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
@@ -2460,6 +2484,7 @@
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
@@ -2468,6 +2493,7 @@
       <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
@@ -2476,6 +2502,7 @@
       <c r="B32" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
@@ -2484,6 +2511,7 @@
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
@@ -2492,6 +2520,7 @@
       <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
@@ -2500,6 +2529,7 @@
       <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -2516,6 +2546,7 @@
       <c r="B37" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
@@ -2524,6 +2555,7 @@
       <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -2540,6 +2572,7 @@
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
@@ -2548,6 +2581,7 @@
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -2604,6 +2638,7 @@
       <c r="B48" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
@@ -2612,6 +2647,7 @@
       <c r="B49" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
@@ -2620,6 +2656,7 @@
       <c r="B50" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
@@ -2636,6 +2673,7 @@
       <c r="B52" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
@@ -2644,6 +2682,7 @@
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
@@ -2660,6 +2699,7 @@
       <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
@@ -2676,6 +2716,7 @@
       <c r="B57" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
@@ -2692,6 +2733,7 @@
       <c r="B59" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
@@ -2700,6 +2742,7 @@
       <c r="B60" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
@@ -2708,6 +2751,7 @@
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -2716,6 +2760,7 @@
       <c r="B62" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
@@ -2733,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2775,6 +2820,7 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -2783,6 +2829,7 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -2791,6 +2838,7 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -2799,6 +2847,7 @@
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -2807,6 +2856,7 @@
       <c r="B7" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -2815,6 +2865,7 @@
       <c r="B8" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -2823,6 +2874,7 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -2831,6 +2883,7 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -2839,7 +2892,7 @@
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2849,6 +2902,7 @@
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -2857,6 +2911,7 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -2865,6 +2920,7 @@
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
@@ -2873,6 +2929,7 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -2889,6 +2946,7 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
@@ -2897,6 +2955,7 @@
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -2905,6 +2964,7 @@
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -2913,6 +2973,7 @@
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -2921,6 +2982,7 @@
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
@@ -2929,6 +2991,7 @@
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
@@ -2937,6 +3000,7 @@
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
@@ -2945,6 +3009,7 @@
       <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
@@ -2953,6 +3018,7 @@
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -2961,6 +3027,7 @@
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
@@ -2969,6 +3036,7 @@
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
@@ -2985,6 +3053,7 @@
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
@@ -2993,6 +3062,7 @@
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
@@ -3001,6 +3071,7 @@
       <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
@@ -3009,6 +3080,7 @@
       <c r="B32" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
@@ -3017,6 +3089,7 @@
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
@@ -3025,6 +3098,7 @@
       <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
@@ -3033,6 +3107,7 @@
       <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -3049,6 +3124,7 @@
       <c r="B37" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
@@ -3057,6 +3133,7 @@
       <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -3073,6 +3150,7 @@
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
@@ -3081,6 +3159,7 @@
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -3137,6 +3216,7 @@
       <c r="B48" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
@@ -3145,6 +3225,7 @@
       <c r="B49" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
@@ -3153,6 +3234,7 @@
       <c r="B50" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
@@ -3169,6 +3251,7 @@
       <c r="B52" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
@@ -3177,6 +3260,7 @@
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
@@ -3193,6 +3277,7 @@
       <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
@@ -3209,6 +3294,7 @@
       <c r="B57" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
@@ -3225,6 +3311,7 @@
       <c r="B59" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
@@ -3233,6 +3320,7 @@
       <c r="B60" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
@@ -3241,6 +3329,7 @@
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -3249,6 +3338,7 @@
       <c r="B62" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>

--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="640 x 1136 - iOS" sheetId="3" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1441,6 +1441,7 @@
       <c r="B43" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
@@ -1449,6 +1450,7 @@
       <c r="B44" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
@@ -1457,6 +1459,7 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
@@ -1465,6 +1468,7 @@
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -1622,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2020,6 +2024,7 @@
       <c r="B43" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
@@ -2028,6 +2033,7 @@
       <c r="B44" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
@@ -2036,6 +2042,7 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
@@ -2044,6 +2051,7 @@
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -2200,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2598,6 +2606,7 @@
       <c r="B43" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
@@ -2606,6 +2615,7 @@
       <c r="B44" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
@@ -2614,6 +2624,7 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
@@ -2622,6 +2633,7 @@
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -2778,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3176,6 +3188,7 @@
       <c r="B43" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
@@ -3184,6 +3197,7 @@
       <c r="B44" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
@@ -3192,6 +3206,7 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
@@ -3200,6 +3215,7 @@
       <c r="B46" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
